--- a/contratos/contratos-2-2020.xlsx
+++ b/contratos/contratos-2-2020.xlsx
@@ -1198,7 +1198,7 @@
     <t>LEMOS ALFREDO GUILLERMO</t>
   </si>
   <si>
-    <t>ALBIZZATTI, PABLO MARTIN Y FULINI, SERGIO RUBEN</t>
+    <t>ALBIZZATTI. PABLO MARTIN Y FULINI. SERGIO RUBEN</t>
   </si>
   <si>
     <t>ARDETI GUSTAVO EMANUEL</t>
@@ -1216,7 +1216,7 @@
     <t>REYMUNDO EDUARDO JORGE</t>
   </si>
   <si>
-    <t>SCHAB DARIO, PEROTTI XAVIER, BENINCA MATIAS S.H.</t>
+    <t>SCHAB DARIO. PEROTTI XAVIER. BENINCA MATIAS SH</t>
   </si>
   <si>
     <t>GONZALEZ SONIA MARIA</t>
@@ -1720,748 +1720,748 @@
     <t>113</t>
   </si>
   <si>
-    <t>27.800,00</t>
-  </si>
-  <si>
-    <t>10.500,00</t>
-  </si>
-  <si>
-    <t>1.567.200,00</t>
-  </si>
-  <si>
-    <t>101.169,00</t>
-  </si>
-  <si>
-    <t>433.000,00</t>
-  </si>
-  <si>
-    <t>1.204.000,00</t>
-  </si>
-  <si>
-    <t>70,00</t>
-  </si>
-  <si>
-    <t>11.900,00</t>
-  </si>
-  <si>
-    <t>4.500,00</t>
-  </si>
-  <si>
-    <t>130,00</t>
-  </si>
-  <si>
-    <t>2.315,00</t>
-  </si>
-  <si>
-    <t>12.946,00</t>
-  </si>
-  <si>
-    <t>1.553,20</t>
-  </si>
-  <si>
-    <t>1.000,00</t>
-  </si>
-  <si>
-    <t>3.050,00</t>
-  </si>
-  <si>
-    <t>952.000,00</t>
-  </si>
-  <si>
-    <t>2.900.000,00</t>
-  </si>
-  <si>
-    <t>3.398,00</t>
-  </si>
-  <si>
-    <t>2.159,55</t>
-  </si>
-  <si>
-    <t>3.920,00</t>
-  </si>
-  <si>
-    <t>5.379,02</t>
-  </si>
-  <si>
-    <t>615.922,50</t>
-  </si>
-  <si>
-    <t>533.274,30</t>
-  </si>
-  <si>
-    <t>113.360,00</t>
-  </si>
-  <si>
-    <t>3.700,00</t>
-  </si>
-  <si>
-    <t>124.543,30</t>
-  </si>
-  <si>
-    <t>679.781,75</t>
-  </si>
-  <si>
-    <t>192.982,68</t>
-  </si>
-  <si>
-    <t>3.059,85</t>
-  </si>
-  <si>
-    <t>49.530,00</t>
-  </si>
-  <si>
-    <t>14.000,00</t>
-  </si>
-  <si>
-    <t>1.050,00</t>
-  </si>
-  <si>
-    <t>1.931,10</t>
-  </si>
-  <si>
-    <t>80.939,12</t>
-  </si>
-  <si>
-    <t>17.017,00</t>
-  </si>
-  <si>
-    <t>5.230,65</t>
-  </si>
-  <si>
-    <t>71.985,00</t>
-  </si>
-  <si>
-    <t>70.500,00</t>
-  </si>
-  <si>
-    <t>12.800,00</t>
-  </si>
-  <si>
-    <t>1.400,00</t>
-  </si>
-  <si>
-    <t>19.500,00</t>
-  </si>
-  <si>
-    <t>19.123,50</t>
-  </si>
-  <si>
-    <t>433,49</t>
-  </si>
-  <si>
-    <t>1.780,00</t>
-  </si>
-  <si>
-    <t>5.213,69</t>
-  </si>
-  <si>
-    <t>3.018.220,15</t>
-  </si>
-  <si>
-    <t>17.000,81</t>
-  </si>
-  <si>
-    <t>6.960,00</t>
-  </si>
-  <si>
-    <t>1.698.770,80</t>
-  </si>
-  <si>
-    <t>10.000,00</t>
-  </si>
-  <si>
-    <t>17,65</t>
-  </si>
-  <si>
-    <t>1.500,00</t>
-  </si>
-  <si>
-    <t>4.096,70</t>
-  </si>
-  <si>
-    <t>15.817,00</t>
-  </si>
-  <si>
-    <t>90.960,00</t>
-  </si>
-  <si>
-    <t>14.600,00</t>
-  </si>
-  <si>
-    <t>97.939,25</t>
-  </si>
-  <si>
-    <t>19.788,09</t>
-  </si>
-  <si>
-    <t>2.250,00</t>
-  </si>
-  <si>
-    <t>19.148,00</t>
-  </si>
-  <si>
-    <t>7.600,00</t>
-  </si>
-  <si>
-    <t>88.067,28</t>
-  </si>
-  <si>
-    <t>3.740,00</t>
-  </si>
-  <si>
-    <t>1.090,00</t>
-  </si>
-  <si>
-    <t>5.900,00</t>
-  </si>
-  <si>
-    <t>27.118,23</t>
-  </si>
-  <si>
-    <t>3.600,00</t>
-  </si>
-  <si>
-    <t>5.824,90</t>
-  </si>
-  <si>
-    <t>25.737,00</t>
-  </si>
-  <si>
-    <t>825,00</t>
-  </si>
-  <si>
-    <t>7.596,05</t>
-  </si>
-  <si>
-    <t>60,00</t>
-  </si>
-  <si>
-    <t>791.093,00</t>
-  </si>
-  <si>
-    <t>9.848,00</t>
-  </si>
-  <si>
-    <t>14.850,00</t>
-  </si>
-  <si>
-    <t>32.929,49</t>
-  </si>
-  <si>
-    <t>3.049,00</t>
-  </si>
-  <si>
-    <t>142.000,00</t>
-  </si>
-  <si>
-    <t>695,87</t>
-  </si>
-  <si>
-    <t>10.811,38</t>
-  </si>
-  <si>
-    <t>5.340,24</t>
-  </si>
-  <si>
-    <t>2.224,80</t>
-  </si>
-  <si>
-    <t>2.500,00</t>
-  </si>
-  <si>
-    <t>25.580,00</t>
-  </si>
-  <si>
-    <t>17.700,00</t>
-  </si>
-  <si>
-    <t>334.200,00</t>
-  </si>
-  <si>
-    <t>970,00</t>
-  </si>
-  <si>
-    <t>4.785,00</t>
-  </si>
-  <si>
-    <t>7.005,00</t>
-  </si>
-  <si>
-    <t>39.635,01</t>
-  </si>
-  <si>
-    <t>7.500,00</t>
-  </si>
-  <si>
-    <t>5.400,00</t>
-  </si>
-  <si>
-    <t>231.000,00</t>
-  </si>
-  <si>
-    <t>11.400,00</t>
-  </si>
-  <si>
-    <t>900,00</t>
-  </si>
-  <si>
-    <t>9.900,00</t>
-  </si>
-  <si>
-    <t>6.200,00</t>
-  </si>
-  <si>
-    <t>18.070,00</t>
-  </si>
-  <si>
-    <t>20.160,00</t>
-  </si>
-  <si>
-    <t>564,48</t>
-  </si>
-  <si>
-    <t>16.200,00</t>
-  </si>
-  <si>
-    <t>9.840,00</t>
-  </si>
-  <si>
-    <t>60,12</t>
-  </si>
-  <si>
-    <t>5,00</t>
-  </si>
-  <si>
-    <t>16.238,78</t>
-  </si>
-  <si>
-    <t>18.410,00</t>
-  </si>
-  <si>
-    <t>19.470,06</t>
-  </si>
-  <si>
-    <t>7.900,00</t>
-  </si>
-  <si>
-    <t>3.636,79</t>
-  </si>
-  <si>
-    <t>85.419,94</t>
-  </si>
-  <si>
-    <t>430,00</t>
-  </si>
-  <si>
-    <t>352.590,00</t>
-  </si>
-  <si>
-    <t>1.200,00</t>
-  </si>
-  <si>
-    <t>284.019,01</t>
-  </si>
-  <si>
-    <t>1.710,00</t>
-  </si>
-  <si>
-    <t>33.926,38</t>
-  </si>
-  <si>
-    <t>25.631,80</t>
-  </si>
-  <si>
-    <t>151.600,00</t>
-  </si>
-  <si>
-    <t>93.250,00</t>
-  </si>
-  <si>
-    <t>12.850,00</t>
-  </si>
-  <si>
-    <t>4.747,50</t>
-  </si>
-  <si>
-    <t>22.980,00</t>
-  </si>
-  <si>
-    <t>2.646,12</t>
-  </si>
-  <si>
-    <t>8.184,00</t>
-  </si>
-  <si>
-    <t>66.323,23</t>
-  </si>
-  <si>
-    <t>135,00</t>
-  </si>
-  <si>
-    <t>320,00</t>
-  </si>
-  <si>
-    <t>22.596,50</t>
-  </si>
-  <si>
-    <t>15.000,00</t>
-  </si>
-  <si>
-    <t>17.760,00</t>
-  </si>
-  <si>
-    <t>2.300,00</t>
-  </si>
-  <si>
-    <t>3.653,55</t>
-  </si>
-  <si>
-    <t>5.452,00</t>
-  </si>
-  <si>
-    <t>17.400,00</t>
-  </si>
-  <si>
-    <t>2.021,54</t>
-  </si>
-  <si>
-    <t>39.200,00</t>
-  </si>
-  <si>
-    <t>7.200,00</t>
-  </si>
-  <si>
-    <t>6.800,00</t>
-  </si>
-  <si>
-    <t>7.311,79</t>
-  </si>
-  <si>
-    <t>5.498,07</t>
-  </si>
-  <si>
-    <t>15.900,00</t>
-  </si>
-  <si>
-    <t>197.087,00</t>
-  </si>
-  <si>
-    <t>3.337,04</t>
-  </si>
-  <si>
-    <t>22.000,00</t>
-  </si>
-  <si>
-    <t>309.400,00</t>
-  </si>
-  <si>
-    <t>19.000,00</t>
-  </si>
-  <si>
-    <t>17.000,00</t>
-  </si>
-  <si>
-    <t>72.500,00</t>
-  </si>
-  <si>
-    <t>90.000,00</t>
-  </si>
-  <si>
-    <t>3.500,00</t>
-  </si>
-  <si>
-    <t>285.900,00</t>
-  </si>
-  <si>
-    <t>1.219.510,00</t>
-  </si>
-  <si>
-    <t>70.000,00</t>
-  </si>
-  <si>
-    <t>153.600,00</t>
-  </si>
-  <si>
-    <t>1.767,99</t>
-  </si>
-  <si>
-    <t>1.440,00</t>
-  </si>
-  <si>
-    <t>37,00</t>
-  </si>
-  <si>
-    <t>26.540,00</t>
-  </si>
-  <si>
-    <t>58,00</t>
-  </si>
-  <si>
-    <t>7.686,46</t>
-  </si>
-  <si>
-    <t>35.000,00</t>
-  </si>
-  <si>
-    <t>26.000,00</t>
-  </si>
-  <si>
-    <t>2.200,00</t>
-  </si>
-  <si>
-    <t>12.000,00</t>
-  </si>
-  <si>
-    <t>18.000,00</t>
-  </si>
-  <si>
-    <t>2.000,00</t>
-  </si>
-  <si>
-    <t>30.000,00</t>
-  </si>
-  <si>
-    <t>13.000,00</t>
-  </si>
-  <si>
-    <t>12.400,00</t>
-  </si>
-  <si>
-    <t>9.000,00</t>
-  </si>
-  <si>
-    <t>10.200,00</t>
-  </si>
-  <si>
-    <t>4.000,00</t>
-  </si>
-  <si>
-    <t>33.200,00</t>
-  </si>
-  <si>
-    <t>5.000,00</t>
-  </si>
-  <si>
-    <t>73.206,25</t>
-  </si>
-  <si>
-    <t>16.000,00</t>
-  </si>
-  <si>
-    <t>297.950,00</t>
-  </si>
-  <si>
-    <t>20.000,00</t>
-  </si>
-  <si>
-    <t>111.300,00</t>
-  </si>
-  <si>
-    <t>11.800,00</t>
-  </si>
-  <si>
-    <t>19.600,00</t>
-  </si>
-  <si>
-    <t>617,43</t>
-  </si>
-  <si>
-    <t>8.660,00</t>
-  </si>
-  <si>
-    <t>25.064,00</t>
-  </si>
-  <si>
-    <t>36.350,00</t>
-  </si>
-  <si>
-    <t>22.300,00</t>
-  </si>
-  <si>
-    <t>13.128,60</t>
-  </si>
-  <si>
-    <t>200,00</t>
-  </si>
-  <si>
-    <t>7.150,00</t>
-  </si>
-  <si>
-    <t>10.929,87</t>
-  </si>
-  <si>
-    <t>4.163,00</t>
-  </si>
-  <si>
-    <t>7.820,05</t>
-  </si>
-  <si>
-    <t>29.627,60</t>
-  </si>
-  <si>
-    <t>10.780,00</t>
-  </si>
-  <si>
-    <t>838,40</t>
-  </si>
-  <si>
-    <t>7.893,00</t>
-  </si>
-  <si>
-    <t>3.000,00</t>
-  </si>
-  <si>
-    <t>4.440,00</t>
-  </si>
-  <si>
-    <t>487,48</t>
-  </si>
-  <si>
-    <t>1.350,00</t>
-  </si>
-  <si>
-    <t>2.585,22</t>
-  </si>
-  <si>
-    <t>5.554,27</t>
-  </si>
-  <si>
-    <t>5.750,00</t>
-  </si>
-  <si>
-    <t>5.817,80</t>
-  </si>
-  <si>
-    <t>62.231,14</t>
-  </si>
-  <si>
-    <t>12.464,09</t>
-  </si>
-  <si>
-    <t>80.000,00</t>
-  </si>
-  <si>
-    <t>40.000,00</t>
-  </si>
-  <si>
-    <t>55.000,00</t>
-  </si>
-  <si>
-    <t>151.500,00</t>
-  </si>
-  <si>
-    <t>183.348,00</t>
-  </si>
-  <si>
-    <t>11.600,00</t>
-  </si>
-  <si>
-    <t>7.753.543,08</t>
-  </si>
-  <si>
-    <t>30.350,00</t>
-  </si>
-  <si>
-    <t>11.000,00</t>
-  </si>
-  <si>
-    <t>15.443.949,00</t>
-  </si>
-  <si>
-    <t>323.950,00</t>
-  </si>
-  <si>
-    <t>325.710,00</t>
-  </si>
-  <si>
-    <t>298.100,00</t>
-  </si>
-  <si>
-    <t>317.700,00</t>
-  </si>
-  <si>
-    <t>322.600,00</t>
-  </si>
-  <si>
-    <t>566.600,00</t>
-  </si>
-  <si>
-    <t>732.700,00</t>
-  </si>
-  <si>
-    <t>737.000,00</t>
-  </si>
-  <si>
-    <t>746.940,00</t>
-  </si>
-  <si>
-    <t>596.200,00</t>
-  </si>
-  <si>
-    <t>531.300,00</t>
-  </si>
-  <si>
-    <t>611.400,00</t>
-  </si>
-  <si>
-    <t>885.500,00</t>
-  </si>
-  <si>
-    <t>897.140,00</t>
-  </si>
-  <si>
-    <t>610.480,00</t>
-  </si>
-  <si>
-    <t>315.520,00</t>
-  </si>
-  <si>
-    <t>100.000,00</t>
-  </si>
-  <si>
-    <t>4.329.000,00</t>
-  </si>
-  <si>
-    <t>19.440,00</t>
-  </si>
-  <si>
-    <t>488.000,00</t>
-  </si>
-  <si>
-    <t>288.950,00</t>
-  </si>
-  <si>
-    <t>40.805,00</t>
-  </si>
-  <si>
-    <t>148.800,00</t>
-  </si>
-  <si>
-    <t>280.000,00</t>
-  </si>
-  <si>
-    <t>80.027,00</t>
-  </si>
-  <si>
-    <t>2.813,38</t>
-  </si>
-  <si>
-    <t>3.300,00</t>
-  </si>
-  <si>
-    <t>73.900,00</t>
-  </si>
-  <si>
-    <t>13.680,00</t>
-  </si>
-  <si>
-    <t>7.000,00</t>
-  </si>
-  <si>
-    <t>3.445,00</t>
-  </si>
-  <si>
-    <t>20.200,00</t>
+    <t>27800.00</t>
+  </si>
+  <si>
+    <t>10500.00</t>
+  </si>
+  <si>
+    <t>1567200.00</t>
+  </si>
+  <si>
+    <t>101169.00</t>
+  </si>
+  <si>
+    <t>433000.00</t>
+  </si>
+  <si>
+    <t>1204000.00</t>
+  </si>
+  <si>
+    <t>70.00</t>
+  </si>
+  <si>
+    <t>11900.00</t>
+  </si>
+  <si>
+    <t>4500.00</t>
+  </si>
+  <si>
+    <t>130.00</t>
+  </si>
+  <si>
+    <t>2315.00</t>
+  </si>
+  <si>
+    <t>12946.00</t>
+  </si>
+  <si>
+    <t>1553.20</t>
+  </si>
+  <si>
+    <t>1000.00</t>
+  </si>
+  <si>
+    <t>3050.00</t>
+  </si>
+  <si>
+    <t>952000.00</t>
+  </si>
+  <si>
+    <t>2900000.00</t>
+  </si>
+  <si>
+    <t>3398.00</t>
+  </si>
+  <si>
+    <t>2159.55</t>
+  </si>
+  <si>
+    <t>3920.00</t>
+  </si>
+  <si>
+    <t>5379.02</t>
+  </si>
+  <si>
+    <t>615922.50</t>
+  </si>
+  <si>
+    <t>533274.30</t>
+  </si>
+  <si>
+    <t>113360.00</t>
+  </si>
+  <si>
+    <t>3700.00</t>
+  </si>
+  <si>
+    <t>124543.30</t>
+  </si>
+  <si>
+    <t>679781.75</t>
+  </si>
+  <si>
+    <t>192982.68</t>
+  </si>
+  <si>
+    <t>3059.85</t>
+  </si>
+  <si>
+    <t>49530.00</t>
+  </si>
+  <si>
+    <t>14000.00</t>
+  </si>
+  <si>
+    <t>1050.00</t>
+  </si>
+  <si>
+    <t>1931.10</t>
+  </si>
+  <si>
+    <t>80939.12</t>
+  </si>
+  <si>
+    <t>17017.00</t>
+  </si>
+  <si>
+    <t>5230.65</t>
+  </si>
+  <si>
+    <t>71985.00</t>
+  </si>
+  <si>
+    <t>70500.00</t>
+  </si>
+  <si>
+    <t>12800.00</t>
+  </si>
+  <si>
+    <t>1400.00</t>
+  </si>
+  <si>
+    <t>19500.00</t>
+  </si>
+  <si>
+    <t>19123.50</t>
+  </si>
+  <si>
+    <t>433.49</t>
+  </si>
+  <si>
+    <t>1780.00</t>
+  </si>
+  <si>
+    <t>5213.69</t>
+  </si>
+  <si>
+    <t>3018220.15</t>
+  </si>
+  <si>
+    <t>17000.81</t>
+  </si>
+  <si>
+    <t>6960.00</t>
+  </si>
+  <si>
+    <t>1698770.80</t>
+  </si>
+  <si>
+    <t>10000.00</t>
+  </si>
+  <si>
+    <t>17.65</t>
+  </si>
+  <si>
+    <t>1500.00</t>
+  </si>
+  <si>
+    <t>4096.70</t>
+  </si>
+  <si>
+    <t>15817.00</t>
+  </si>
+  <si>
+    <t>90960.00</t>
+  </si>
+  <si>
+    <t>14600.00</t>
+  </si>
+  <si>
+    <t>97939.25</t>
+  </si>
+  <si>
+    <t>19788.09</t>
+  </si>
+  <si>
+    <t>2250.00</t>
+  </si>
+  <si>
+    <t>19148.00</t>
+  </si>
+  <si>
+    <t>7600.00</t>
+  </si>
+  <si>
+    <t>88067.28</t>
+  </si>
+  <si>
+    <t>3740.00</t>
+  </si>
+  <si>
+    <t>1090.00</t>
+  </si>
+  <si>
+    <t>5900.00</t>
+  </si>
+  <si>
+    <t>27118.23</t>
+  </si>
+  <si>
+    <t>3600.00</t>
+  </si>
+  <si>
+    <t>5824.90</t>
+  </si>
+  <si>
+    <t>25737.00</t>
+  </si>
+  <si>
+    <t>825.00</t>
+  </si>
+  <si>
+    <t>7596.05</t>
+  </si>
+  <si>
+    <t>60.00</t>
+  </si>
+  <si>
+    <t>791093.00</t>
+  </si>
+  <si>
+    <t>9848.00</t>
+  </si>
+  <si>
+    <t>14850.00</t>
+  </si>
+  <si>
+    <t>32929.49</t>
+  </si>
+  <si>
+    <t>3049.00</t>
+  </si>
+  <si>
+    <t>142000.00</t>
+  </si>
+  <si>
+    <t>695.87</t>
+  </si>
+  <si>
+    <t>10811.38</t>
+  </si>
+  <si>
+    <t>5340.24</t>
+  </si>
+  <si>
+    <t>2224.80</t>
+  </si>
+  <si>
+    <t>2500.00</t>
+  </si>
+  <si>
+    <t>25580.00</t>
+  </si>
+  <si>
+    <t>17700.00</t>
+  </si>
+  <si>
+    <t>334200.00</t>
+  </si>
+  <si>
+    <t>970.00</t>
+  </si>
+  <si>
+    <t>4785.00</t>
+  </si>
+  <si>
+    <t>7005.00</t>
+  </si>
+  <si>
+    <t>39635.01</t>
+  </si>
+  <si>
+    <t>7500.00</t>
+  </si>
+  <si>
+    <t>5400.00</t>
+  </si>
+  <si>
+    <t>231000.00</t>
+  </si>
+  <si>
+    <t>11400.00</t>
+  </si>
+  <si>
+    <t>900.00</t>
+  </si>
+  <si>
+    <t>9900.00</t>
+  </si>
+  <si>
+    <t>6200.00</t>
+  </si>
+  <si>
+    <t>18070.00</t>
+  </si>
+  <si>
+    <t>20160.00</t>
+  </si>
+  <si>
+    <t>564.48</t>
+  </si>
+  <si>
+    <t>16200.00</t>
+  </si>
+  <si>
+    <t>9840.00</t>
+  </si>
+  <si>
+    <t>60.12</t>
+  </si>
+  <si>
+    <t>5.00</t>
+  </si>
+  <si>
+    <t>16238.78</t>
+  </si>
+  <si>
+    <t>18410.00</t>
+  </si>
+  <si>
+    <t>19470.06</t>
+  </si>
+  <si>
+    <t>7900.00</t>
+  </si>
+  <si>
+    <t>3636.79</t>
+  </si>
+  <si>
+    <t>85419.94</t>
+  </si>
+  <si>
+    <t>430.00</t>
+  </si>
+  <si>
+    <t>352590.00</t>
+  </si>
+  <si>
+    <t>1200.00</t>
+  </si>
+  <si>
+    <t>284019.01</t>
+  </si>
+  <si>
+    <t>1710.00</t>
+  </si>
+  <si>
+    <t>33926.38</t>
+  </si>
+  <si>
+    <t>25631.80</t>
+  </si>
+  <si>
+    <t>151600.00</t>
+  </si>
+  <si>
+    <t>93250.00</t>
+  </si>
+  <si>
+    <t>12850.00</t>
+  </si>
+  <si>
+    <t>4747.50</t>
+  </si>
+  <si>
+    <t>22980.00</t>
+  </si>
+  <si>
+    <t>2646.12</t>
+  </si>
+  <si>
+    <t>8184.00</t>
+  </si>
+  <si>
+    <t>66323.23</t>
+  </si>
+  <si>
+    <t>135.00</t>
+  </si>
+  <si>
+    <t>320.00</t>
+  </si>
+  <si>
+    <t>22596.50</t>
+  </si>
+  <si>
+    <t>15000.00</t>
+  </si>
+  <si>
+    <t>17760.00</t>
+  </si>
+  <si>
+    <t>2300.00</t>
+  </si>
+  <si>
+    <t>3653.55</t>
+  </si>
+  <si>
+    <t>5452.00</t>
+  </si>
+  <si>
+    <t>17400.00</t>
+  </si>
+  <si>
+    <t>2021.54</t>
+  </si>
+  <si>
+    <t>39200.00</t>
+  </si>
+  <si>
+    <t>7200.00</t>
+  </si>
+  <si>
+    <t>6800.00</t>
+  </si>
+  <si>
+    <t>7311.79</t>
+  </si>
+  <si>
+    <t>5498.07</t>
+  </si>
+  <si>
+    <t>15900.00</t>
+  </si>
+  <si>
+    <t>197087.00</t>
+  </si>
+  <si>
+    <t>3337.04</t>
+  </si>
+  <si>
+    <t>22000.00</t>
+  </si>
+  <si>
+    <t>309400.00</t>
+  </si>
+  <si>
+    <t>19000.00</t>
+  </si>
+  <si>
+    <t>17000.00</t>
+  </si>
+  <si>
+    <t>72500.00</t>
+  </si>
+  <si>
+    <t>90000.00</t>
+  </si>
+  <si>
+    <t>3500.00</t>
+  </si>
+  <si>
+    <t>285900.00</t>
+  </si>
+  <si>
+    <t>1219510.00</t>
+  </si>
+  <si>
+    <t>70000.00</t>
+  </si>
+  <si>
+    <t>153600.00</t>
+  </si>
+  <si>
+    <t>1767.99</t>
+  </si>
+  <si>
+    <t>1440.00</t>
+  </si>
+  <si>
+    <t>37.00</t>
+  </si>
+  <si>
+    <t>26540.00</t>
+  </si>
+  <si>
+    <t>58.00</t>
+  </si>
+  <si>
+    <t>7686.46</t>
+  </si>
+  <si>
+    <t>35000.00</t>
+  </si>
+  <si>
+    <t>26000.00</t>
+  </si>
+  <si>
+    <t>2200.00</t>
+  </si>
+  <si>
+    <t>12000.00</t>
+  </si>
+  <si>
+    <t>18000.00</t>
+  </si>
+  <si>
+    <t>2000.00</t>
+  </si>
+  <si>
+    <t>30000.00</t>
+  </si>
+  <si>
+    <t>13000.00</t>
+  </si>
+  <si>
+    <t>12400.00</t>
+  </si>
+  <si>
+    <t>9000.00</t>
+  </si>
+  <si>
+    <t>10200.00</t>
+  </si>
+  <si>
+    <t>4000.00</t>
+  </si>
+  <si>
+    <t>33200.00</t>
+  </si>
+  <si>
+    <t>5000.00</t>
+  </si>
+  <si>
+    <t>73206.25</t>
+  </si>
+  <si>
+    <t>16000.00</t>
+  </si>
+  <si>
+    <t>297950.00</t>
+  </si>
+  <si>
+    <t>20000.00</t>
+  </si>
+  <si>
+    <t>111300.00</t>
+  </si>
+  <si>
+    <t>11800.00</t>
+  </si>
+  <si>
+    <t>19600.00</t>
+  </si>
+  <si>
+    <t>617.43</t>
+  </si>
+  <si>
+    <t>8660.00</t>
+  </si>
+  <si>
+    <t>25064.00</t>
+  </si>
+  <si>
+    <t>36350.00</t>
+  </si>
+  <si>
+    <t>22300.00</t>
+  </si>
+  <si>
+    <t>13128.60</t>
+  </si>
+  <si>
+    <t>200.00</t>
+  </si>
+  <si>
+    <t>7150.00</t>
+  </si>
+  <si>
+    <t>10929.87</t>
+  </si>
+  <si>
+    <t>4163.00</t>
+  </si>
+  <si>
+    <t>7820.05</t>
+  </si>
+  <si>
+    <t>29627.60</t>
+  </si>
+  <si>
+    <t>10780.00</t>
+  </si>
+  <si>
+    <t>838.40</t>
+  </si>
+  <si>
+    <t>7893.00</t>
+  </si>
+  <si>
+    <t>3000.00</t>
+  </si>
+  <si>
+    <t>4440.00</t>
+  </si>
+  <si>
+    <t>487.48</t>
+  </si>
+  <si>
+    <t>1350.00</t>
+  </si>
+  <si>
+    <t>2585.22</t>
+  </si>
+  <si>
+    <t>5554.27</t>
+  </si>
+  <si>
+    <t>5750.00</t>
+  </si>
+  <si>
+    <t>5817.80</t>
+  </si>
+  <si>
+    <t>62231.14</t>
+  </si>
+  <si>
+    <t>12464.09</t>
+  </si>
+  <si>
+    <t>80000.00</t>
+  </si>
+  <si>
+    <t>40000.00</t>
+  </si>
+  <si>
+    <t>55000.00</t>
+  </si>
+  <si>
+    <t>151500.00</t>
+  </si>
+  <si>
+    <t>183348.00</t>
+  </si>
+  <si>
+    <t>11600.00</t>
+  </si>
+  <si>
+    <t>7753543.08</t>
+  </si>
+  <si>
+    <t>30350.00</t>
+  </si>
+  <si>
+    <t>11000.00</t>
+  </si>
+  <si>
+    <t>15443949.00</t>
+  </si>
+  <si>
+    <t>323950.00</t>
+  </si>
+  <si>
+    <t>325710.00</t>
+  </si>
+  <si>
+    <t>298100.00</t>
+  </si>
+  <si>
+    <t>317700.00</t>
+  </si>
+  <si>
+    <t>322600.00</t>
+  </si>
+  <si>
+    <t>566600.00</t>
+  </si>
+  <si>
+    <t>732700.00</t>
+  </si>
+  <si>
+    <t>737000.00</t>
+  </si>
+  <si>
+    <t>746940.00</t>
+  </si>
+  <si>
+    <t>596200.00</t>
+  </si>
+  <si>
+    <t>531300.00</t>
+  </si>
+  <si>
+    <t>611400.00</t>
+  </si>
+  <si>
+    <t>885500.00</t>
+  </si>
+  <si>
+    <t>897140.00</t>
+  </si>
+  <si>
+    <t>610480.00</t>
+  </si>
+  <si>
+    <t>315520.00</t>
+  </si>
+  <si>
+    <t>100000.00</t>
+  </si>
+  <si>
+    <t>4329000.00</t>
+  </si>
+  <si>
+    <t>19440.00</t>
+  </si>
+  <si>
+    <t>488000.00</t>
+  </si>
+  <si>
+    <t>288950.00</t>
+  </si>
+  <si>
+    <t>40805.00</t>
+  </si>
+  <si>
+    <t>148800.00</t>
+  </si>
+  <si>
+    <t>280000.00</t>
+  </si>
+  <si>
+    <t>80027.00</t>
+  </si>
+  <si>
+    <t>2813.38</t>
+  </si>
+  <si>
+    <t>3300.00</t>
+  </si>
+  <si>
+    <t>73900.00</t>
+  </si>
+  <si>
+    <t>13680.00</t>
+  </si>
+  <si>
+    <t>7000.00</t>
+  </si>
+  <si>
+    <t>3445.00</t>
+  </si>
+  <si>
+    <t>20200.00</t>
   </si>
 </sst>
 </file>
